--- a/src/main/resources/static/files/TEST_DL_CONG.xlsx
+++ b/src/main/resources/static/files/TEST_DL_CONG.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Bảng công'!$A$6:$AU$6</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'DL công'!$A$2:$P$3255</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'DL công'!$A$2:$P$3250</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="221">
   <si>
     <t xml:space="preserve">Emp No.</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lê Quý Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoangduchung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Đức Hùng</t>
   </si>
   <si>
     <t xml:space="preserve">BẢNG CHẤM CÔNG GTEL ICT</t>
@@ -2042,7 +2036,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3003,210 +2997,18 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
-      <c r="B26" s="10" t="n">
-        <v>581</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>45468</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="16" t="n">
-        <v>0.747222222222222</v>
-      </c>
-      <c r="I26" s="16" t="n">
-        <v>0.759027777777778</v>
-      </c>
-      <c r="J26" s="34" t="n">
-        <v>-0.0506944444444445</v>
-      </c>
-      <c r="K26" s="35" t="n">
-        <v>0.406944444444444</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35" t="n">
-        <v>0.406944444444444</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="19" t="n">
-        <v>-0.15531914893617</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
-      <c r="B27" s="10" t="n">
-        <v>581</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>45469</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="16" t="n">
-        <v>0.350694444444444</v>
-      </c>
-      <c r="I27" s="16" t="n">
-        <v>0.74375</v>
-      </c>
-      <c r="J27" s="34" t="n">
-        <v>0.330555555555556</v>
-      </c>
-      <c r="K27" s="35" t="n">
-        <v>0.0104166666666667</v>
-      </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35" t="n">
-        <v>0.0104166666666667</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
-      <c r="B28" s="10" t="n">
-        <v>581</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>45470</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="16" t="n">
-        <v>0.367361111111111</v>
-      </c>
-      <c r="I28" s="16" t="n">
-        <v>0.752083333333333</v>
-      </c>
-      <c r="J28" s="34" t="n">
-        <v>0.322222222222222</v>
-      </c>
-      <c r="K28" s="35" t="n">
-        <v>0.0270833333333333</v>
-      </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35" t="n">
-        <v>0.0270833333333333</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="19" t="n">
-        <v>0.987234042553192</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
-      <c r="B29" s="10" t="n">
-        <v>581</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>45471</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16" t="n">
-        <v>0.341666666666667</v>
-      </c>
-      <c r="I29" s="16" t="n">
-        <v>0.747916666666667</v>
-      </c>
-      <c r="J29" s="34" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="K29" s="35" t="n">
-        <v>0.00138888888888888</v>
-      </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35" t="n">
-        <v>0.00138888888888888</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
-      <c r="B30" s="10" t="n">
-        <v>581</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>45472</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="16" t="n">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="I30" s="16" t="n">
-        <v>0.477083333333333</v>
-      </c>
-      <c r="J30" s="34" t="n">
-        <v>0.122916666666667</v>
-      </c>
-      <c r="K30" s="35" t="n">
-        <v>0.013888888888889</v>
-      </c>
-      <c r="L30" s="35" t="n">
-        <v>0.0229166666666667</v>
-      </c>
-      <c r="M30" s="35" t="n">
-        <v>0.0368055555555556</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="19" t="n">
-        <v>0.421428571428571</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
@@ -6193,34 +5995,23 @@
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1025" s="10"/>
     </row>
-    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="10"/>
-    </row>
-    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="10"/>
-    </row>
-    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="10"/>
-    </row>
-    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="10"/>
-    </row>
-    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="10"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:P3255">
-    <sortState ref="A3:P3255">
-      <sortCondition ref="A3:A3255" customList=""/>
+  <autoFilter ref="A2:P3250">
+    <sortState ref="A3:P3250">
+      <sortCondition ref="A3:A3250" customList=""/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="H1:H2 H31:H1048576">
+  <conditionalFormatting sqref="H1:H2 H26:H1048576">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>#ref!&gt;"08:06"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I30">
+  <conditionalFormatting sqref="H3:I25">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>#ref!&gt;"08:06"</formula>
     </cfRule>
@@ -6275,7 +6066,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6325,7 +6116,7 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6383,25 +6174,25 @@
     </row>
     <row r="4" s="56" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="54" t="n">
         <v>45444</v>
@@ -6494,31 +6285,31 @@
         <v>45473</v>
       </c>
       <c r="AL4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN4" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AO4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AP4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="50" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AP4" s="51" t="s">
+      <c r="AR4" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AS4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AR4" s="55" t="s">
+      <c r="AT4" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="AS4" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="50" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" s="58" customFormat="true" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6709,7 +6500,7 @@
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
@@ -6765,10 +6556,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="70" t="s">
         <v>17</v>
@@ -6897,10 +6688,10 @@
         <v>106</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>17</v>
@@ -7028,10 +6819,10 @@
         <v>109</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>17</v>
@@ -7159,10 +6950,10 @@
         <v>111</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="70" t="s">
         <v>17</v>
@@ -7285,10 +7076,10 @@
         <v>113</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>17</v>
@@ -7414,10 +7205,10 @@
         <v>116</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>17</v>
@@ -7544,10 +7335,10 @@
         <v>117</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>17</v>
@@ -7677,10 +7468,10 @@
         <v>118</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>17</v>
@@ -7807,10 +7598,10 @@
         <v>119</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="70" t="s">
         <v>17</v>
@@ -7938,10 +7729,10 @@
         <v>121</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>17</v>
@@ -8062,10 +7853,10 @@
         <v>123</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="70" t="s">
         <v>17</v>
@@ -8194,10 +7985,10 @@
         <v>128</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>17</v>
@@ -8322,10 +8113,10 @@
         <v>129</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="70" t="s">
         <v>17</v>
@@ -8455,10 +8246,10 @@
         <v>130</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="70" t="s">
         <v>17</v>
@@ -8584,10 +8375,10 @@
         <v>131</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="70" t="s">
         <v>17</v>
@@ -8715,10 +8506,10 @@
         <v>143</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="70" t="s">
         <v>17</v>
@@ -8843,10 +8634,10 @@
         <v>137</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="70" t="s">
         <v>17</v>
@@ -8935,7 +8726,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS24" s="73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT24" s="73" t="n">
         <v>4.5</v>
@@ -8949,10 +8740,10 @@
         <v>139</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="70" t="s">
         <v>17</v>
@@ -9075,10 +8866,10 @@
         <v>140</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="70" t="s">
         <v>17</v>
@@ -9205,10 +8996,10 @@
         <v>142</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="70" t="s">
         <v>17</v>
@@ -9331,10 +9122,10 @@
         <v>132</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="70" t="s">
         <v>17</v>
@@ -9468,10 +9259,10 @@
         <v>134</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="70" t="s">
         <v>17</v>
@@ -9598,10 +9389,10 @@
         <v>135</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>17</v>
@@ -9729,10 +9520,10 @@
         <v>136</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="70" t="s">
         <v>17</v>
@@ -9856,10 +9647,10 @@
         <v>144</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="70" t="s">
         <v>17</v>
@@ -9979,10 +9770,10 @@
         <v>148</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="70" t="s">
         <v>17</v>
@@ -10107,10 +9898,10 @@
         <v>147</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>17</v>
@@ -10241,10 +10032,10 @@
         <v>153</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="70" t="s">
         <v>17</v>
@@ -10371,10 +10162,10 @@
         <v>201</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="70" t="s">
         <v>17</v>
@@ -10495,10 +10286,10 @@
         <v>202</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="70" t="s">
         <v>17</v>
@@ -10627,10 +10418,10 @@
         <v>203</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="70" t="s">
         <v>17</v>
@@ -10754,10 +10545,10 @@
         <v>221</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E39" s="70" t="s">
         <v>17</v>
@@ -10883,10 +10674,10 @@
         <v>227</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="70" t="s">
         <v>17</v>
@@ -11015,10 +10806,10 @@
         <v>235</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41" s="70" t="s">
         <v>17</v>
@@ -11149,10 +10940,10 @@
         <v>236</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E42" s="70" t="s">
         <v>17</v>
@@ -11281,10 +11072,10 @@
         <v>237</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="70" t="s">
         <v>17</v>
@@ -11431,10 +11222,10 @@
         <v>241</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="70" t="s">
         <v>17</v>
@@ -11562,10 +11353,10 @@
         <v>244</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E45" s="70" t="s">
         <v>17</v>
@@ -11692,10 +11483,10 @@
         <v>247</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E46" s="70" t="s">
         <v>17</v>
@@ -11822,10 +11613,10 @@
         <v>271</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E47" s="70" t="s">
         <v>17</v>
@@ -11952,10 +11743,10 @@
         <v>277</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="70" t="s">
         <v>17</v>
@@ -12080,10 +11871,10 @@
         <v>260</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" s="70" t="s">
         <v>17</v>
@@ -12212,10 +12003,10 @@
         <v>264</v>
       </c>
       <c r="C50" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E50" s="70" t="s">
         <v>17</v>
@@ -12340,10 +12131,10 @@
         <v>266</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="70" t="s">
         <v>17</v>
@@ -12495,10 +12286,10 @@
         <v>269</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E52" s="70" t="s">
         <v>17</v>
@@ -12632,10 +12423,10 @@
         <v>289</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E53" s="70" t="s">
         <v>17</v>
@@ -12764,10 +12555,10 @@
         <v>292</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="70" t="s">
         <v>17</v>
@@ -12902,10 +12693,10 @@
         <v>302</v>
       </c>
       <c r="C55" s="70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="70" t="s">
         <v>17</v>
@@ -13032,10 +12823,10 @@
         <v>303</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E56" s="70" t="s">
         <v>17</v>
@@ -13161,10 +12952,10 @@
         <v>304</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E57" s="70" t="s">
         <v>17</v>
@@ -13291,10 +13082,10 @@
         <v>305</v>
       </c>
       <c r="C58" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E58" s="70" t="s">
         <v>17</v>
@@ -13420,10 +13211,10 @@
         <v>306</v>
       </c>
       <c r="C59" s="70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E59" s="70" t="s">
         <v>17</v>
@@ -13547,10 +13338,10 @@
         <v>308</v>
       </c>
       <c r="C60" s="70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" s="70" t="s">
         <v>17</v>
@@ -13680,10 +13471,10 @@
         <v>310</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E61" s="70" t="s">
         <v>17</v>
@@ -13813,10 +13604,10 @@
         <v>312</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E62" s="70" t="s">
         <v>17</v>
@@ -13944,10 +13735,10 @@
         <v>323</v>
       </c>
       <c r="C63" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="70" t="s">
         <v>17</v>
@@ -14074,10 +13865,10 @@
         <v>334</v>
       </c>
       <c r="C64" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E64" s="70" t="s">
         <v>17</v>
@@ -14203,10 +13994,10 @@
         <v>329</v>
       </c>
       <c r="C65" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E65" s="70" t="s">
         <v>17</v>
@@ -14333,10 +14124,10 @@
         <v>330</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D66" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E66" s="70" t="s">
         <v>17</v>
@@ -14462,10 +14253,10 @@
         <v>331</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="70" t="s">
         <v>17</v>
@@ -14595,10 +14386,10 @@
         <v>336</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="70" t="s">
         <v>17</v>
@@ -14727,10 +14518,10 @@
         <v>338</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D69" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E69" s="70" t="s">
         <v>17</v>
@@ -14860,10 +14651,10 @@
         <v>340</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D70" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E70" s="70" t="s">
         <v>17</v>
@@ -14994,10 +14785,10 @@
         <v>344</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D71" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E71" s="70" t="s">
         <v>17</v>
@@ -15149,10 +14940,10 @@
         <v>345</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E72" s="70" t="s">
         <v>17</v>
@@ -15278,10 +15069,10 @@
         <v>346</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D73" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E73" s="70" t="s">
         <v>17</v>
@@ -15410,10 +15201,10 @@
         <v>347</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D74" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E74" s="70" t="s">
         <v>17</v>
@@ -15543,10 +15334,10 @@
         <v>348</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D75" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E75" s="70" t="s">
         <v>17</v>
@@ -15676,10 +15467,10 @@
         <v>349</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D76" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E76" s="70" t="s">
         <v>17</v>
@@ -15807,10 +15598,10 @@
         <v>350</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E77" s="70" t="s">
         <v>17</v>
@@ -15935,10 +15726,10 @@
         <v>351</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E78" s="70" t="s">
         <v>17</v>
@@ -16064,10 +15855,10 @@
         <v>352</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E79" s="70" t="s">
         <v>17</v>
@@ -16192,10 +15983,10 @@
         <v>353</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E80" s="70" t="s">
         <v>17</v>
@@ -16323,10 +16114,10 @@
         <v>357</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E81" s="70" t="s">
         <v>17</v>
@@ -16456,10 +16247,10 @@
         <v>360</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D82" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E82" s="70" t="s">
         <v>17</v>
@@ -16611,10 +16402,10 @@
         <v>362</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D83" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E83" s="70" t="s">
         <v>17</v>
@@ -16741,10 +16532,10 @@
         <v>363</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D84" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E84" s="70" t="s">
         <v>17</v>
@@ -16875,10 +16666,10 @@
         <v>364</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D85" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E85" s="70" t="s">
         <v>17</v>
@@ -17008,10 +16799,10 @@
         <v>366</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D86" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="70" t="s">
         <v>17</v>
@@ -17136,10 +16927,10 @@
         <v>369</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D87" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E87" s="70" t="s">
         <v>17</v>
@@ -17268,10 +17059,10 @@
         <v>388</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D88" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E88" s="70" t="s">
         <v>17</v>
@@ -17410,10 +17201,10 @@
         <v>392</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E89" s="70" t="s">
         <v>17</v>
@@ -17565,10 +17356,10 @@
         <v>393</v>
       </c>
       <c r="C90" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D90" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E90" s="70" t="s">
         <v>17</v>
@@ -17693,10 +17484,10 @@
         <v>395</v>
       </c>
       <c r="C91" s="70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D91" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E91" s="70" t="s">
         <v>17</v>
@@ -17829,10 +17620,10 @@
         <v>399</v>
       </c>
       <c r="C92" s="70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D92" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E92" s="70" t="s">
         <v>17</v>
@@ -17959,10 +17750,10 @@
         <v>400</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D93" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E93" s="75" t="s">
         <v>17</v>
@@ -18096,10 +17887,10 @@
         <v>401</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D94" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E94" s="70" t="s">
         <v>17</v>
@@ -18225,10 +18016,10 @@
         <v>404</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D95" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E95" s="70" t="s">
         <v>17</v>
@@ -18360,10 +18151,10 @@
         <v>406</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D96" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E96" s="70" t="s">
         <v>17</v>
@@ -18500,10 +18291,10 @@
         <v>413</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D97" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E97" s="70" t="s">
         <v>17</v>
@@ -18630,10 +18421,10 @@
         <v>414</v>
       </c>
       <c r="C98" s="70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D98" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E98" s="70" t="s">
         <v>17</v>
@@ -18762,10 +18553,10 @@
         <v>425</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E99" s="70" t="s">
         <v>17</v>
@@ -18895,10 +18686,10 @@
         <v>429</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E100" s="70" t="s">
         <v>17</v>
@@ -19027,10 +18818,10 @@
         <v>434</v>
       </c>
       <c r="C101" s="70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E101" s="70" t="s">
         <v>17</v>
@@ -19154,10 +18945,10 @@
         <v>435</v>
       </c>
       <c r="C102" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E102" s="70" t="s">
         <v>17</v>
@@ -19288,10 +19079,10 @@
         <v>443</v>
       </c>
       <c r="C103" s="70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E103" s="70" t="s">
         <v>17</v>
@@ -19422,10 +19213,10 @@
         <v>445</v>
       </c>
       <c r="C104" s="70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D104" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E104" s="70" t="s">
         <v>17</v>
@@ -19551,10 +19342,10 @@
         <v>449</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D105" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E105" s="70" t="s">
         <v>17</v>
@@ -19680,10 +19471,10 @@
         <v>451</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D106" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E106" s="70" t="s">
         <v>17</v>
@@ -19811,10 +19602,10 @@
         <v>459</v>
       </c>
       <c r="C107" s="70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D107" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E107" s="70" t="s">
         <v>17</v>
@@ -19944,10 +19735,10 @@
         <v>461</v>
       </c>
       <c r="C108" s="70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D108" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E108" s="70" t="s">
         <v>17</v>
@@ -20073,10 +19864,10 @@
         <v>458</v>
       </c>
       <c r="C109" s="70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D109" s="70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E109" s="70" t="s">
         <v>17</v>
@@ -20207,10 +19998,10 @@
         <v>466</v>
       </c>
       <c r="C110" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D110" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E110" s="70" t="s">
         <v>17</v>
@@ -20341,10 +20132,10 @@
         <v>463</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D111" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E111" s="70" t="s">
         <v>17</v>
@@ -20472,10 +20263,10 @@
         <v>477</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D112" s="70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E112" s="75" t="s">
         <v>17</v>
@@ -20627,10 +20418,10 @@
         <v>478</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D113" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E113" s="75" t="s">
         <v>17</v>
@@ -20760,10 +20551,10 @@
         <v>473</v>
       </c>
       <c r="C114" s="70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D114" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E114" s="75" t="s">
         <v>17</v>
@@ -20890,10 +20681,10 @@
         <v>474</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D115" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E115" s="75" t="s">
         <v>17</v>
@@ -21020,10 +20811,10 @@
         <v>476</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D116" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E116" s="75" t="s">
         <v>17</v>
@@ -21152,10 +20943,10 @@
         <v>481</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D117" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E117" s="75" t="s">
         <v>17</v>
@@ -21307,10 +21098,10 @@
         <v>483</v>
       </c>
       <c r="C118" s="70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D118" s="75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E118" s="75" t="s">
         <v>17</v>
@@ -21438,10 +21229,10 @@
         <v>493</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D119" s="75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E119" s="75" t="s">
         <v>17</v>
@@ -21570,10 +21361,10 @@
         <v>487</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D120" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E120" s="75" t="s">
         <v>17</v>
@@ -21698,10 +21489,10 @@
         <v>488</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D121" s="70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E121" s="75" t="s">
         <v>17</v>
@@ -21831,10 +21622,10 @@
         <v>496</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D122" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E122" s="75" t="s">
         <v>17</v>
@@ -21964,10 +21755,10 @@
         <v>497</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D123" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E123" s="75" t="s">
         <v>17</v>
@@ -22094,10 +21885,10 @@
         <v>502</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D124" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E124" s="75" t="s">
         <v>17</v>
@@ -22226,10 +22017,10 @@
         <v>506</v>
       </c>
       <c r="C125" s="77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D125" s="78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E125" s="75" t="s">
         <v>17</v>
@@ -22354,10 +22145,10 @@
         <v>507</v>
       </c>
       <c r="C126" s="77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D126" s="78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E126" s="75" t="s">
         <v>17</v>
@@ -22484,10 +22275,10 @@
         <v>508</v>
       </c>
       <c r="C127" s="77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D127" s="78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E127" s="75" t="s">
         <v>17</v>
@@ -22617,10 +22408,10 @@
         <v>510</v>
       </c>
       <c r="C128" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D128" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E128" s="75" t="s">
         <v>17</v>
@@ -22770,10 +22561,10 @@
         <v>512</v>
       </c>
       <c r="C129" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D129" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E129" s="75" t="s">
         <v>17</v>
@@ -22900,10 +22691,10 @@
         <v>513</v>
       </c>
       <c r="C130" s="77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D130" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E130" s="75" t="s">
         <v>17</v>
@@ -23033,10 +22824,10 @@
         <v>515</v>
       </c>
       <c r="C131" s="77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D131" s="78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E131" s="75" t="s">
         <v>17</v>
@@ -23165,10 +22956,10 @@
         <v>516</v>
       </c>
       <c r="C132" s="81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D132" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E132" s="75" t="s">
         <v>17</v>
@@ -23293,10 +23084,10 @@
         <v>517</v>
       </c>
       <c r="C133" s="79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D133" s="82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E133" s="75" t="s">
         <v>17</v>
@@ -23446,10 +23237,10 @@
         <v>519</v>
       </c>
       <c r="C134" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D134" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134" s="75" t="s">
         <v>17</v>
@@ -23584,10 +23375,10 @@
         <v>520</v>
       </c>
       <c r="C135" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D135" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E135" s="75" t="s">
         <v>17</v>
@@ -23739,10 +23530,10 @@
         <v>521</v>
       </c>
       <c r="C136" s="81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D136" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E136" s="75" t="s">
         <v>17</v>
@@ -23867,10 +23658,10 @@
         <v>522</v>
       </c>
       <c r="C137" s="77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D137" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E137" s="75" t="s">
         <v>17</v>
@@ -23998,10 +23789,10 @@
         <v>524</v>
       </c>
       <c r="C138" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D138" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E138" s="75" t="s">
         <v>17</v>
@@ -24127,10 +23918,10 @@
         <v>527</v>
       </c>
       <c r="C139" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E139" s="75" t="s">
         <v>17</v>
@@ -24256,10 +24047,10 @@
         <v>509</v>
       </c>
       <c r="C140" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D140" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E140" s="75" t="s">
         <v>17</v>
@@ -24385,10 +24176,10 @@
         <v>532</v>
       </c>
       <c r="C141" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D141" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E141" s="75" t="s">
         <v>17</v>
@@ -24515,10 +24306,10 @@
         <v>538</v>
       </c>
       <c r="C142" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D142" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E142" s="75" t="s">
         <v>17</v>
@@ -24643,10 +24434,10 @@
         <v>547</v>
       </c>
       <c r="C143" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D143" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E143" s="75" t="s">
         <v>17</v>
@@ -24773,10 +24564,10 @@
         <v>550</v>
       </c>
       <c r="C144" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D144" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E144" s="75" t="s">
         <v>17</v>
@@ -24903,10 +24694,10 @@
         <v>555</v>
       </c>
       <c r="C145" s="77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D145" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E145" s="75" t="s">
         <v>17</v>
@@ -25028,10 +24819,10 @@
         <v>552</v>
       </c>
       <c r="C146" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D146" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E146" s="75" t="s">
         <v>17</v>
@@ -25158,10 +24949,10 @@
         <v>553</v>
       </c>
       <c r="C147" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D147" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E147" s="75" t="s">
         <v>17</v>
@@ -25288,10 +25079,10 @@
         <v>558</v>
       </c>
       <c r="C148" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D148" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E148" s="75" t="s">
         <v>17</v>
@@ -25421,10 +25212,10 @@
         <v>565</v>
       </c>
       <c r="C149" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D149" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E149" s="75" t="s">
         <v>17</v>
@@ -25547,10 +25338,10 @@
         <v>566</v>
       </c>
       <c r="C150" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D150" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E150" s="75" t="s">
         <v>17</v>
@@ -25678,10 +25469,10 @@
         <v>567</v>
       </c>
       <c r="C151" s="77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E151" s="75" t="s">
         <v>17</v>
@@ -25806,10 +25597,10 @@
         <v>568</v>
       </c>
       <c r="C152" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D152" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E152" s="75" t="s">
         <v>17</v>
@@ -25937,10 +25728,10 @@
         <v>571</v>
       </c>
       <c r="C153" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D153" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E153" s="75" t="s">
         <v>17</v>
@@ -26067,10 +25858,10 @@
         <v>572</v>
       </c>
       <c r="C154" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D154" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E154" s="75" t="s">
         <v>17</v>
@@ -26195,10 +25986,10 @@
         <v>570</v>
       </c>
       <c r="C155" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D155" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E155" s="75" t="s">
         <v>17</v>
@@ -26321,10 +26112,10 @@
         <v>335</v>
       </c>
       <c r="C156" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D156" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E156" s="75" t="s">
         <v>17</v>
@@ -26452,10 +26243,10 @@
         <v>110</v>
       </c>
       <c r="C157" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D157" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E157" s="75" t="s">
         <v>17</v>
@@ -26583,7 +26374,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS157" s="73" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AT157" s="73" t="n">
         <v>6</v>
@@ -26597,10 +26388,10 @@
         <v>573</v>
       </c>
       <c r="C158" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D158" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E158" s="75" t="s">
         <v>17</v>
@@ -26708,7 +26499,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS158" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AT158" s="73"/>
     </row>
@@ -26720,10 +26511,10 @@
         <v>575</v>
       </c>
       <c r="C159" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D159" s="82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E159" s="75" t="s">
         <v>17</v>
@@ -26827,7 +26618,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS159" s="73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AT159" s="73"/>
     </row>
@@ -26839,10 +26630,10 @@
         <v>579</v>
       </c>
       <c r="C160" s="77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D160" s="82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E160" s="75" t="s">
         <v>17</v>
@@ -26931,7 +26722,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS160" s="73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AT160" s="73"/>
     </row>
@@ -26946,7 +26737,7 @@
         <v>16</v>
       </c>
       <c r="D161" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E161" s="75" t="s">
         <v>17</v>
@@ -27035,7 +26826,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS161" s="73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AT161" s="73"/>
     </row>
@@ -27050,7 +26841,7 @@
         <v>25</v>
       </c>
       <c r="D162" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E162" s="75" t="s">
         <v>17</v>
@@ -27140,7 +26931,7 @@
         <v>#N/A</v>
       </c>
       <c r="AS162" s="73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AT162" s="73"/>
     </row>
